--- a/doc/系统设计.xlsx
+++ b/doc/系统设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\levent\simple_saas_pay\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\java\wechat-tools-parent\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D82658-6FC5-481E-8BA9-736736A03555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D338D5-918C-4C17-9E90-D2A7D57AFA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <sheet name="微信token获取策略表" sheetId="6" r:id="rId6"/>
     <sheet name="关注邀请表" sheetId="10" r:id="rId7"/>
     <sheet name="订单模板表" sheetId="9" r:id="rId8"/>
-    <sheet name="管理员表" sheetId="11" r:id="rId9"/>
-    <sheet name="数据库ER图" sheetId="8" r:id="rId10"/>
-    <sheet name="软件结构划分" sheetId="7" r:id="rId11"/>
+    <sheet name="转发关注抽奖应用表" sheetId="12" r:id="rId9"/>
+    <sheet name="转发关注奖品表" sheetId="13" r:id="rId10"/>
+    <sheet name="抽奖记录表" sheetId="14" r:id="rId11"/>
+    <sheet name="管理员表" sheetId="11" r:id="rId12"/>
+    <sheet name="数据库ER图" sheetId="8" r:id="rId13"/>
+    <sheet name="软件结构划分" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="331">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,12 +1026,490 @@
 3.用户取消关注公众号后更新该值为未关注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>t_invite_follow_app 转发关注抽奖应用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录该应用被哪一个商户创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横幅图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部横幅图片文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页脚文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖面板页脚文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖页面主题颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖按钮背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖按钮的背景图片文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖规则文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rules_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该活动的截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否徐填写电话号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加该活动是否需要填写电话号码进行验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP最后一次更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APP的状态：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等待审核，APP创建后默认为该状态，且该状态的APP不允许上线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">审核通过，APP通过管理员审核后为该状态，该状态为最终线上状态
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 拒绝上线，该状态的APP由于信息不全等原因不允许被上线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 超时结束，该APP由于已经过了截至日期自动下线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发关注抽奖应用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_invite_follow_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户创建的转发关注抽奖应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_invite_follow_prize 转发关注奖品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发关注抽奖奖品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_invite_follow_prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发关注抽奖奖品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认应用标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该APP是否为默认应用，默认应用为用户打开网页后自动跳转到的应用
+商户只允许有一个或0个默认应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品的显示图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品数量，即该奖品最多被抽中的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片列表，使用JSON方式存储，格式如下：
+[
+{
+    "image": "图片文件名称",
+    “url”: "点击该图片跳转到的链接"
+},...
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该奖品的中奖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已中奖数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品已经抽出的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_follow_app_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference to
+t_invite_follow_app.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该奖品所对应的抽奖应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品信息最后一次更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写转发关注抽奖应用的数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭文梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_invite_follow_draw 转发关注抽奖记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发关注抽奖记录表</t>
+  </si>
+  <si>
+    <t>t_invite_follow_draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录转发关注APP的用户抽奖记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发关注抽奖应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference to
+t_wechat_user.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖用户的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖的状态：
+0x01: 中奖
+0x02: 未中奖
+0x03: 已兑奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference to
+t_invite_follow_prize.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当抽奖状态未已中奖或已兑奖时，
+该值非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中奖的奖品ID
+状态为未中奖时该值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当应用中指定"phone_required"时，
+该值非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用中"phone_required"为false时，
+该值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖记录最后一次更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1548,14 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1245,28 +1734,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1591,13 +2080,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -1608,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -1617,7 +2106,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -1626,7 +2115,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -1635,7 +2124,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -1657,6 +2146,853 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72289F7B-FABA-4CEB-A2D3-F93B0E952071}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203BAAF0-4844-48E7-86E1-170764B70D72}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CEA9B1-CCC6-47D1-8F75-79DDCB425876}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1DDA4F-69F9-4CED-947B-F967730836CF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1664,14 +3000,14 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5382DD8C-9589-4310-BD99-2F6A01F26FE6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1682,49 +3018,49 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1734,9 +3070,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
@@ -1744,9 +3080,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1756,9 +3092,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>107</v>
       </c>
@@ -1766,9 +3102,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>108</v>
       </c>
@@ -1776,9 +3112,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>121</v>
       </c>
@@ -1786,9 +3122,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1798,9 +3134,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>110</v>
       </c>
@@ -1808,12 +3144,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="7" t="s">
         <v>191</v>
       </c>
@@ -1837,22 +3173,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAC37FC-F516-4B09-A4A4-BE4EDDBC9580}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
@@ -1866,7 +3202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -1880,7 +3216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -1890,6 +3226,20 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1900,22 +3250,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E7078-F8C5-480E-81FE-803603F96957}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +3291,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -1953,7 +3303,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>103</v>
       </c>
@@ -1965,7 +3315,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>142</v>
       </c>
@@ -1977,7 +3327,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>145</v>
       </c>
@@ -1989,7 +3339,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>178</v>
       </c>
@@ -2001,7 +3351,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>206</v>
       </c>
@@ -2012,6 +3362,42 @@
         <v>208</v>
       </c>
       <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2023,6 +3409,9 @@
     <hyperlink ref="A7" location="关注邀请表!A1" display="公众号关注邀请日志表" xr:uid="{D64CA6B1-A548-416C-B564-5C901C0D17DC}"/>
     <hyperlink ref="A8" location="管理员表!A1" display="管理员表" xr:uid="{B1520E3D-B482-485B-9E8F-04EE5ADE1AE7}"/>
     <hyperlink ref="A6" location="订单模板表!A1" display="订单模板项目表" xr:uid="{DA4F5C39-06FF-4E49-94E3-B6D42062A4FE}"/>
+    <hyperlink ref="A9" location="转发关注抽奖应用表!A1" display="转发关注抽奖应用表" xr:uid="{32CB1656-0C03-4E32-A2B0-9DD59EEAE814}"/>
+    <hyperlink ref="A10" location="转发关注奖品表!A1" display="转发关注抽奖奖品表" xr:uid="{3B6D4A7E-5954-4760-892B-4B187351331D}"/>
+    <hyperlink ref="A11" location="抽奖记录表!A1" display="转发关注抽奖记录表" xr:uid="{C6FF6D88-28BC-4E7B-8C2A-DB937D1705D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2038,19 +3427,19 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.125" customWidth="1"/>
+    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -2064,7 +3453,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +3513,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -2148,7 +3537,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2170,7 +3559,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -2192,7 +3581,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +3607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2242,7 +3631,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -2264,7 +3653,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2286,7 +3675,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2308,7 +3697,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -2330,7 +3719,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -2353,17 +3742,17 @@
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -2377,7 +3766,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2437,7 +3826,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>139</v>
       </c>
@@ -2459,7 +3848,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2481,7 +3870,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -2503,7 +3892,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -2525,7 +3914,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +3938,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +3960,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>232</v>
       </c>
@@ -2593,7 +3982,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>233</v>
       </c>
@@ -2615,7 +4004,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2637,7 +4026,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -2659,7 +4048,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -2699,17 +4088,17 @@
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>86</v>
       </c>
@@ -2723,7 +4112,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2783,7 +4172,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -2809,7 +4198,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
@@ -2831,7 +4220,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
@@ -2853,7 +4242,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
@@ -2875,7 +4264,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>101</v>
       </c>
@@ -2897,7 +4286,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
@@ -2932,24 +4321,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC26B8-F164-4F36-B17D-D6A3D4C68FE1}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>180</v>
       </c>
@@ -2963,7 +4352,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +4384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +4412,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>181</v>
       </c>
@@ -3047,7 +4436,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>184</v>
       </c>
@@ -3071,7 +4460,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>214</v>
       </c>
@@ -3095,7 +4484,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>228</v>
       </c>
@@ -3117,7 +4506,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>218</v>
       </c>
@@ -3139,7 +4528,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>222</v>
       </c>
@@ -3161,7 +4550,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>224</v>
       </c>
@@ -3202,19 +4591,19 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>148</v>
       </c>
@@ -3228,7 +4617,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +4649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3288,7 +4677,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -3312,7 +4701,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -3334,7 +4723,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
@@ -3356,7 +4745,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>169</v>
       </c>
@@ -3378,7 +4767,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>159</v>
       </c>
@@ -3400,7 +4789,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>164</v>
       </c>
@@ -3422,7 +4811,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
@@ -3444,7 +4833,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>173</v>
       </c>
@@ -3466,7 +4855,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>176</v>
       </c>
@@ -3498,29 +4887,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CEA9B1-CCC6-47D1-8F75-79DDCB425876}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C3870C-8314-4060-B6B5-D569A1260A8B}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3532,7 +4919,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3588,62 +4975,62 @@
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -3652,20 +5039,20 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -3674,79 +5061,277 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3754,5 +5339,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/系统设计.xlsx
+++ b/doc/系统设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\java\wechat-tools-parent\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monolith\workspace\java\wechat-tools-parent\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D338D5-918C-4C17-9E90-D2A7D57AFA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049B02D-744D-45CD-84C6-9C916237E812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="336">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1502,6 +1502,28 @@
   </si>
   <si>
     <t>抽奖记录最后一次更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品状态：
+0x01: 有效
+0x02: 无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,13 +2102,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -2097,7 +2119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -2106,7 +2128,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -2115,7 +2137,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -2124,7 +2146,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -2147,23 +2169,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72289F7B-FABA-4CEB-A2D3-F93B0E952071}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>274</v>
       </c>
@@ -2177,7 +2200,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2237,7 +2260,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>298</v>
       </c>
@@ -2261,7 +2284,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>281</v>
       </c>
@@ -2283,7 +2306,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>282</v>
       </c>
@@ -2305,7 +2328,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>285</v>
       </c>
@@ -2327,7 +2350,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>289</v>
       </c>
@@ -2349,7 +2372,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>295</v>
       </c>
@@ -2371,34 +2394,34 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>332</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>302</v>
+      <c r="I10" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2411,19 +2434,19 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2433,9 +2456,31 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2443,6 +2488,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2454,20 +2500,20 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>308</v>
       </c>
@@ -2481,7 +2527,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2541,7 +2587,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>298</v>
       </c>
@@ -2565,7 +2611,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>313</v>
       </c>
@@ -2589,7 +2635,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>317</v>
       </c>
@@ -2611,7 +2657,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>319</v>
       </c>
@@ -2635,7 +2681,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>324</v>
       </c>
@@ -2657,7 +2703,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -2679,7 +2725,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2701,7 +2747,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -2740,20 +2786,20 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>192</v>
       </c>
@@ -2767,7 +2813,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2873,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -2851,7 +2897,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
@@ -2873,7 +2919,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>197</v>
       </c>
@@ -2895,7 +2941,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>204</v>
       </c>
@@ -2917,7 +2963,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -2939,7 +2985,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -2961,7 +3007,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -3000,7 +3046,7 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,15 +3064,15 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>105</v>
       </c>
@@ -3036,7 +3082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>111</v>
       </c>
@@ -3048,7 +3094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="15" t="s">
         <v>231</v>
@@ -3058,7 +3104,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>113</v>
@@ -3070,7 +3116,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
@@ -3080,7 +3126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="14" t="s">
         <v>114</v>
@@ -3092,7 +3138,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
@@ -3102,7 +3148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
@@ -3112,7 +3158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
@@ -3122,7 +3168,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="14" t="s">
         <v>115</v>
@@ -3134,7 +3180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
@@ -3144,7 +3190,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="14" t="s">
         <v>190</v>
@@ -3180,15 +3226,15 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
@@ -3202,7 +3248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -3216,7 +3262,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -3228,7 +3274,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
@@ -3257,15 +3303,15 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3291,7 +3337,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -3303,7 +3349,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>103</v>
       </c>
@@ -3315,7 +3361,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>142</v>
       </c>
@@ -3327,7 +3373,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>145</v>
       </c>
@@ -3339,7 +3385,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>178</v>
       </c>
@@ -3351,7 +3397,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>206</v>
       </c>
@@ -3363,7 +3409,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>271</v>
       </c>
@@ -3375,7 +3421,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>275</v>
       </c>
@@ -3387,7 +3433,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>309</v>
       </c>
@@ -3427,19 +3473,19 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.125" customWidth="1"/>
-    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -3453,7 +3499,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3513,7 +3559,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -3537,7 +3583,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -3559,7 +3605,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -3581,7 +3627,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3607,7 +3653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -3631,7 +3677,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -3653,7 +3699,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -3675,7 +3721,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3697,7 +3743,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -3719,7 +3765,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -3742,17 +3788,17 @@
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -3766,7 +3812,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3798,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3826,7 +3872,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>139</v>
       </c>
@@ -3848,7 +3894,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3870,7 +3916,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -3892,7 +3938,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -3914,7 +3960,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -3938,7 +3984,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3960,7 +4006,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>232</v>
       </c>
@@ -3982,7 +4028,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>233</v>
       </c>
@@ -4004,7 +4050,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -4026,7 +4072,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -4048,7 +4094,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -4088,17 +4134,17 @@
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>86</v>
       </c>
@@ -4112,7 +4158,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -4144,7 +4190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4218,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +4244,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="207" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
@@ -4220,7 +4266,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
@@ -4242,7 +4288,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
@@ -4264,7 +4310,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>101</v>
       </c>
@@ -4286,7 +4332,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
@@ -4326,19 +4372,19 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>180</v>
       </c>
@@ -4352,7 +4398,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4412,7 +4458,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>181</v>
       </c>
@@ -4436,7 +4482,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>184</v>
       </c>
@@ -4460,7 +4506,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>214</v>
       </c>
@@ -4484,7 +4530,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>228</v>
       </c>
@@ -4506,7 +4552,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>218</v>
       </c>
@@ -4528,7 +4574,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>222</v>
       </c>
@@ -4550,7 +4596,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>224</v>
       </c>
@@ -4591,19 +4637,19 @@
       <selection pane="bottomLeft" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>148</v>
       </c>
@@ -4617,7 +4663,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -4649,7 +4695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4677,7 +4723,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -4701,7 +4747,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -4723,7 +4769,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
@@ -4745,7 +4791,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>169</v>
       </c>
@@ -4767,7 +4813,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>159</v>
       </c>
@@ -4789,7 +4835,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>164</v>
       </c>
@@ -4811,7 +4857,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
@@ -4833,7 +4879,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>173</v>
       </c>
@@ -4855,7 +4901,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>176</v>
       </c>
@@ -4890,22 +4936,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C3870C-8314-4060-B6B5-D569A1260A8B}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>239</v>
       </c>
@@ -4919,7 +4965,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -4951,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4979,7 +5025,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -5003,7 +5049,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>252</v>
       </c>
@@ -5025,7 +5071,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -5047,7 +5093,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>244</v>
       </c>
@@ -5069,7 +5115,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>247</v>
       </c>
@@ -5091,7 +5137,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>249</v>
       </c>
@@ -5113,7 +5159,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>255</v>
       </c>
@@ -5135,7 +5181,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -5157,7 +5203,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>260</v>
       </c>
@@ -5179,7 +5225,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>263</v>
       </c>
@@ -5201,7 +5247,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>290</v>
       </c>
@@ -5223,7 +5269,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
@@ -5245,7 +5291,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>278</v>
       </c>
@@ -5267,7 +5313,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -5289,7 +5335,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -5311,7 +5357,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>

--- a/doc/系统设计.xlsx
+++ b/doc/系统设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monolith\workspace\java\wechat-tools-parent\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049B02D-744D-45CD-84C6-9C916237E812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B74486-1DA6-4E51-A805-8D39042B16F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="341">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1524,6 +1524,27 @@
     <t>奖品状态：
 0x01: 有效
 0x02: 无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference To
+t_invite_follow_app.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注邀请应用ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72289F7B-FABA-4CEB-A2D3-F93B0E952071}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4365,11 +4386,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC26B8-F164-4F36-B17D-D6A3D4C68FE1}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4378,7 +4399,7 @@
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.88671875" bestFit="1" customWidth="1"/>
@@ -4507,79 +4528,81 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="8" t="s">
-        <v>238</v>
+      <c r="I7" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="7" t="s">
-        <v>221</v>
+      <c r="I8" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>220</v>
@@ -4592,19 +4615,19 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4614,9 +4637,31 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="B11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4624,7 +4669,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
